--- a/Jeux de donnees/STEP/jdd-Verify.xlsx
+++ b/Jeux de donnees/STEP/jdd-Verify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onepoint365-my.sharepoint.com/personal/s_aggour_groupeonepoint_com/Documents/Clarins/clarins-auto-uat-ihm/Jeux de donnees/STEP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="198" documentId="8_{F8FC3C97-02FF-AE48-9689-FEA987C68905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C73033-50E4-984D-8090-6B554C03544C}"/>
+  <xr:revisionPtr revIDLastSave="213" documentId="8_{F8FC3C97-02FF-AE48-9689-FEA987C68905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81A5DA0D-7F3A-8C4D-8FC1-7D310CBB17B4}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{4DA722B0-B969-BA48-B4D5-5F273268CD81}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="9180" xr2:uid="{4DA722B0-B969-BA48-B4D5-5F273268CD81}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="50">
   <si>
     <t>*** Test Cases ***</t>
   </si>
@@ -59,9 +59,6 @@
     <t>${BirthDate}</t>
   </si>
   <si>
-    <t>UC1_UAT</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
@@ -71,21 +68,6 @@
     <t>NO</t>
   </si>
   <si>
-    <t>UC2_UAT</t>
-  </si>
-  <si>
-    <t>UC3_UAT</t>
-  </si>
-  <si>
-    <t>UC4_UAT</t>
-  </si>
-  <si>
-    <t>UC5_UAT</t>
-  </si>
-  <si>
-    <t>UC6_UAT</t>
-  </si>
-  <si>
     <t>UC1_UAT@gg.com</t>
   </si>
   <si>
@@ -167,39 +149,6 @@
     <t>${isFrozen}</t>
   </si>
   <si>
-    <t>${phoneOptinChannel}</t>
-  </si>
-  <si>
-    <t>${phoneOptin}</t>
-  </si>
-  <si>
-    <t>${phoneOptinDate}</t>
-  </si>
-  <si>
-    <t>${phoneLastUpdate}</t>
-  </si>
-  <si>
-    <t>${phoneLastUpdateSystem}</t>
-  </si>
-  <si>
-    <t>${adressOptin}</t>
-  </si>
-  <si>
-    <t>${adressOptinChannel}</t>
-  </si>
-  <si>
-    <t>${adressOptinDate}</t>
-  </si>
-  <si>
-    <t>${EmailOptinChannel}</t>
-  </si>
-  <si>
-    <t>${EmailOptin}</t>
-  </si>
-  <si>
-    <t>${EmailOptinDate}</t>
-  </si>
-  <si>
     <t>8e8e32b43a534e6e9de7a883f91431c5</t>
   </si>
   <si>
@@ -219,6 +168,24 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>UC1_STEP_Verify_UAT</t>
+  </si>
+  <si>
+    <t>UC2_STEP_Verify_UAT</t>
+  </si>
+  <si>
+    <t>UC3_STEP_Verify_UAT</t>
+  </si>
+  <si>
+    <t>UC4_STEP_Verify_UAT</t>
+  </si>
+  <si>
+    <t>UC5_STEP_Verify_UAT</t>
+  </si>
+  <si>
+    <t>UC6_STEP_Verify_UAT</t>
   </si>
 </sst>
 </file>
@@ -391,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -432,37 +399,58 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -881,45 +869,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F68739-BB33-5C46-BACF-9BD323521F18}">
   <dimension ref="A1:AO16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="27" width="15.1640625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="19.5" style="3" customWidth="1"/>
-    <col min="29" max="29" width="20.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.1640625" style="26" customWidth="1"/>
+    <col min="28" max="28" width="19.83203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.6640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19" style="26" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="80.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="14" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" s="20" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -930,19 +924,19 @@
         <v>5</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I1" s="13" t="s">
         <v>2</v>
@@ -951,309 +945,305 @@
         <v>3</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="L1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="O1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AG1" s="21"/>
+    </row>
+    <row r="2" spans="1:41" s="23" customFormat="1" ht="20" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="J2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="16"/>
+      <c r="N2" s="17">
+        <v>36747</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="25"/>
+    </row>
+    <row r="3" spans="1:41" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="H3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T1" s="13" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="17">
+        <v>36273</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="14" t="s">
+      <c r="P3" s="2"/>
+      <c r="Q3" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="22"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="25"/>
+    </row>
+    <row r="4" spans="1:41" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="B4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="22"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="25"/>
+    </row>
+    <row r="5" spans="1:41" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="B5" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="25"/>
+    </row>
+    <row r="6" spans="1:41" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="25"/>
+    </row>
+    <row r="7" spans="1:41" s="23" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG1" s="16"/>
-    </row>
-    <row r="2" spans="1:41" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="B7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20">
-        <v>36747</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="17"/>
-      <c r="AD2" s="17"/>
-      <c r="AE2" s="17"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="18"/>
-    </row>
-    <row r="3" spans="1:41" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="20">
-        <v>36273</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="18"/>
-    </row>
-    <row r="4" spans="1:41" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC4" s="17"/>
-      <c r="AD4" s="17"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="18"/>
-    </row>
-    <row r="5" spans="1:41" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="18"/>
-    </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="17"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="18"/>
-    </row>
-    <row r="7" spans="1:41" s="2" customFormat="1" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="17"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="18"/>
-    </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="H9" s="4"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="25"/>
+    </row>
+    <row r="8" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="1:41" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="27"/>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="H10" s="4"/>
@@ -1269,7 +1259,17 @@
     </row>
     <row r="14" spans="1:41" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="H14" s="6"/>
-      <c r="AD14" s="7"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="29"/>
       <c r="AG14" s="7"/>
       <c r="AH14" s="7"/>
       <c r="AI14" s="7"/>
@@ -1284,6 +1284,16 @@
       <c r="H15" s="4"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="31"/>
+      <c r="Y15" s="31"/>
+      <c r="Z15" s="31"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="31"/>
+      <c r="AC15" s="31"/>
+      <c r="AD15" s="31"/>
       <c r="AE15" s="10"/>
       <c r="AK15" s="10"/>
     </row>
@@ -1291,6 +1301,16 @@
       <c r="H16" s="4"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="31"/>
+      <c r="Y16" s="31"/>
+      <c r="Z16" s="31"/>
+      <c r="AA16" s="31"/>
+      <c r="AB16" s="31"/>
+      <c r="AC16" s="31"/>
+      <c r="AD16" s="31"/>
       <c r="AE16" s="10"/>
       <c r="AK16" s="10"/>
     </row>
